--- a/biology/Médecine/Arcade_veineuse_dorsale_du_pied/Arcade_veineuse_dorsale_du_pied.xlsx
+++ b/biology/Médecine/Arcade_veineuse_dorsale_du_pied/Arcade_veineuse_dorsale_du_pied.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arcade veineuse dorsale du pied (ou arcade veineuse dorsale superficielle du pied) est une veine superficielle du membre inférieur située sur la face dorsale du pied. Elle participe à la constitution du réseau veineux dorsal du pied.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arcade veineuse dorsale du pied est formée par l'anastomose entre les veines marginales latérale et médiale du pied. Par leur intermédiaire elle relie les veines petite saphène et grande saphène.  
 </t>
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arcade veineuse dorsale passe transversalement  au-dessus des métatarsiens à mi-chemin entre l'articulation de la cheville et les articulations métatarso-phalangiennes. 
 Elle reçoit les veines digitales dorsales du pied et les veines métatarsiennes dorsales. 
@@ -574,7 +590,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arcade veineuse dorsale est généralement assez facile à palper et à visualiser. 
 </t>
@@ -605,7 +623,9 @@
           <t>Images supplémentaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Dos du pied. Articulation de la cheville. Dissection profonde
